--- a/tools/ExcelToTxt/in/battle.xlsx
+++ b/tools/ExcelToTxt/in/battle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>关卡ID</t>
   </si>
@@ -42,34 +42,67 @@
     <t>playerId</t>
   </si>
   <si>
-    <t>"1,2,3,4,5,6,7,8,9,10"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,11"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,12"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,13"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,14"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,15"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,16"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,17"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,18"</t>
-  </si>
-  <si>
-    <t>"1,2,3,4,5,6,7,8,9,19"</t>
+    <t>去</t>
+  </si>
+  <si>
+    <t>阿达</t>
+  </si>
+  <si>
+    <t>按时</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>啊啊撒</t>
+  </si>
+  <si>
+    <t>阿萨德</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>试试</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 暗室逢灯</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>发</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其发生发的 </t>
+  </si>
+  <si>
+    <t>安抚</t>
+  </si>
+  <si>
+    <t>安全稳定</t>
+  </si>
+  <si>
+    <t>去我的</t>
+  </si>
+  <si>
+    <t>爱迪生</t>
+  </si>
+  <si>
+    <t>请问</t>
+  </si>
+  <si>
+    <t>权我</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请问</t>
   </si>
 </sst>
 </file>
@@ -98,16 +131,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +223,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,106 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +290,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,84 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,72 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +475,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,80 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1079,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1067,7 +1100,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1081,7 +1114,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1"/>
@@ -1090,64 +1123,73 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1157,8 +1199,11 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1166,10 +1211,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1177,7 +1225,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1188,10 +1239,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1202,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
